--- a/src/main/resources/datasample.xlsx
+++ b/src/main/resources/datasample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\lottery\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelijiIDE\ViettelRoller\lottery\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA7F7B99-041B-4C3A-8E05-BE53AB4FE385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{CA3F8A30-5717-48C6-BC01-766E2B6C9A2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="72">
   <si>
     <t>Mã nhân viên</t>
   </si>
@@ -100,20 +100,170 @@
   </si>
   <si>
     <t>Nguyễn Đức Huy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Hương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng Triển khai
+chính sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hồng Hạnh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Thị Trinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng Kiểm thử </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ro:8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X:4,R
+o:4 </t>
+  </si>
+  <si>
+    <t>19,5</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>BU Sản phẩm Đối
+soát, Kiểm soát
+gian lận và Đảm
+bảo Doanh thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P:4,X:
+4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Giang Nam </t>
+  </si>
+  <si>
+    <t>BU Sản phẩm
+Quản lý doanh thu</t>
+  </si>
+  <si>
+    <t>Ro:8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X:4,R o:4 </t>
+  </si>
+  <si>
+    <t>18,5</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thành</t>
+  </si>
+  <si>
+    <t>BU Triển khai sản
+phẩm kinh doanh
+nước ngoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Cao Nguyên </t>
+  </si>
+  <si>
+    <t>Phòng Hỗ trợ dịch
+vụ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lương Thị Phương Hà </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng Kế hoạch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Ngọc Văn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU Sản phẩm
+GTVT và Logistics </t>
+  </si>
+  <si>
+    <t>22,5</t>
+  </si>
+  <si>
+    <t>Nguyễn Hưng Quốc</t>
+  </si>
+  <si>
+    <t>BU Sản phẩm
+Quản lý kho và
+Bán hàng</t>
+  </si>
+  <si>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Đặng Minh Nguyệt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Trinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thị Thúy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P:4,X: 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dương Kim Trường </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU Sản phẩm
+công cụ Mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Văn Hiếu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU Sản phẩm ERP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Bốn </t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Hưng</t>
+  </si>
+  <si>
+    <t>BU Sản phẩm
+Chăm sóc khách
+hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Giang Nữ </t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>TT-CNTT</t>
+  </si>
+  <si>
+    <t>TT-DAC</t>
+  </si>
+  <si>
+    <t>TT-DSKSGL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +285,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -167,13 +341,20 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -489,21 +670,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2558529-CAA4-4D6B-8E8A-F94F1D502E61}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,132 +695,1985 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>123456</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>325164</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>432514</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>124364</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>412334</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>441242</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="D7" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>231423</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="D8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>312345</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>141234</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>234122</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>241234</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>241234</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{CE395CE7-8FCC-4799-BD00-72B4CD43B065}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>